--- a/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H2">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.478673970809873</v>
+        <v>0.668351</v>
       </c>
       <c r="N2">
-        <v>0.478673970809873</v>
+        <v>2.005053</v>
       </c>
       <c r="O2">
-        <v>0.03042523198436105</v>
+        <v>0.04158981742241631</v>
       </c>
       <c r="P2">
-        <v>0.03042523198436105</v>
+        <v>0.0415898174224163</v>
       </c>
       <c r="Q2">
-        <v>0.3494306927056556</v>
+        <v>0.5567530917750001</v>
       </c>
       <c r="R2">
-        <v>0.3494306927056556</v>
+        <v>5.010777825975001</v>
       </c>
       <c r="S2">
-        <v>0.03042523198436105</v>
+        <v>0.04158981742241631</v>
       </c>
       <c r="T2">
-        <v>0.03042523198436105</v>
+        <v>0.0415898174224163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H3">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2985603722732</v>
+        <v>10.435983</v>
       </c>
       <c r="N3">
-        <v>10.2985603722732</v>
+        <v>31.307949</v>
       </c>
       <c r="O3">
-        <v>0.6545918674065847</v>
+        <v>0.649405219104094</v>
       </c>
       <c r="P3">
-        <v>0.6545918674065847</v>
+        <v>0.649405219104094</v>
       </c>
       <c r="Q3">
-        <v>7.517920973780709</v>
+        <v>8.693434738575</v>
       </c>
       <c r="R3">
-        <v>7.517920973780709</v>
+        <v>78.24091264717501</v>
       </c>
       <c r="S3">
-        <v>0.6545918674065847</v>
+        <v>0.649405219104094</v>
       </c>
       <c r="T3">
-        <v>0.6545918674065847</v>
+        <v>0.649405219104094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.729997271659561</v>
+        <v>0.8330250000000001</v>
       </c>
       <c r="H4">
-        <v>0.729997271659561</v>
+        <v>2.499075</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.9555617472119</v>
+        <v>4.965729333333333</v>
       </c>
       <c r="N4">
-        <v>4.9555617472119</v>
+        <v>14.897188</v>
       </c>
       <c r="O4">
-        <v>0.3149829006090543</v>
+        <v>0.3090049634734898</v>
       </c>
       <c r="P4">
-        <v>0.3149829006090543</v>
+        <v>0.3090049634734898</v>
       </c>
       <c r="Q4">
-        <v>3.617546555005174</v>
+        <v>4.1365766779</v>
       </c>
       <c r="R4">
-        <v>3.617546555005174</v>
+        <v>37.2291901011</v>
       </c>
       <c r="S4">
-        <v>0.3149829006090543</v>
+        <v>0.3090049634734898</v>
       </c>
       <c r="T4">
-        <v>0.3149829006090543</v>
+        <v>0.3090049634734898</v>
       </c>
     </row>
   </sheetData>
